--- a/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
+++ b/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,1243 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
+++ b/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.45</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2055,13 +2098,955 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
+++ b/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6354</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.87</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000063</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长盛电子信息主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1229</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="4">
@@ -580,188 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1122</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003004</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商睿祥定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>45.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+      <c r="D4" t="n">
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +532,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信景气优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2003,13 +2733,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2060,36 +2790,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.64</t>
+          <t>37.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.61</t>
+          <t>97.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6461</t>
+          <t>1.6354</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2098,36 +2828,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>000063</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>长盛电子信息主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.36</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>68.02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6316</t>
+          <t>0.1229</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2136,36 +2866,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001956</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国联安科技动力股票</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>86.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3884</t>
+          <t>0.1122</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2174,36 +2904,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000793</t>
+          <t>000679</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银高端制造行业股票</t>
+          <t>招商丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.74</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3264</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2212,36 +2942,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011884</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信景气优选混合型证券投资基金A</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2526</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2250,36 +2980,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161610</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通领先成长混合(LOF)A</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.97</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.20</t>
+          <t>86.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2204</t>
+          <t>0.0060</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2288,766 +3018,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501096</t>
+          <t>002416</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+          <t>招商丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.64</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2201</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011885</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信景气优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>013611</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银民瑞一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002955</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>融通新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>970048</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000531</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008837</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>融通通益混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28.99</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010646</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>融通价值趋势混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001198</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002163</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东方惠新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002605</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>融通新消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>28.07</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002049</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>融通新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>35.33</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>014581</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东吴阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013612</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银民瑞一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.37</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>010647</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>融通价值趋势混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009241</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>融通领先成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>82.20</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.91</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
+++ b/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>2.87</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>4.45</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -532,6 +549,2782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013137</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013312</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014581</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>016402</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1499,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2733,7 +5526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
+++ b/数据整理/stocks/A股/科创板/688800-瑞可达.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>6.89</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>2.87</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>4.45</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -549,6 +566,1042 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4587</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015553</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015554</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通领先成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>017197</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016920</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3324,7 +4377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4292,7 +5345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5526,7 +6579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
